--- a/list/virtualization.xlsx
+++ b/list/virtualization.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13305" tabRatio="992"/>
+    <workbookView windowWidth="24120" windowHeight="12840" tabRatio="992"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$138</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170">
   <si>
     <t>测试项目</t>
   </si>
@@ -1395,6 +1395,162 @@
   </si>
   <si>
     <t>kubernetes</t>
+  </si>
+  <si>
+    <t>检查机器之间是否网络互通</t>
+  </si>
+  <si>
+    <t>kubernetes.md</t>
+  </si>
+  <si>
+    <t>能否成功配置各机器的hostname</t>
+  </si>
+  <si>
+    <t>file:///auto-test/etcd</t>
+  </si>
+  <si>
+    <t>能否成功配置各机器的hosts</t>
+  </si>
+  <si>
+    <t>能否关闭三台机器上的防火墙</t>
+  </si>
+  <si>
+    <t>能否给三台机器安装etcd</t>
+  </si>
+  <si>
+    <t>能否修改k8s-master的etcd配置</t>
+  </si>
+  <si>
+    <t>能否修改k8s-node-1的etcd配置</t>
+  </si>
+  <si>
+    <t>能否修改k8s-node-2的etcd配置</t>
+  </si>
+  <si>
+    <t>能否成功启动etcd服务</t>
+  </si>
+  <si>
+    <t>验证etcd环境是否成功</t>
+  </si>
+  <si>
+    <t>查看etcd集群状态</t>
+  </si>
+  <si>
+    <t>能否给三台机器安装docker</t>
+  </si>
+  <si>
+    <t>能否配置master的Docker配置文件，使其允许从registry中拉取镜像</t>
+  </si>
+  <si>
+    <t>能否开启docker服务</t>
+  </si>
+  <si>
+    <t>能否各节点安装ntp</t>
+  </si>
+  <si>
+    <t>能否各节点启动ntpd服务</t>
+  </si>
+  <si>
+    <t>能否各机器安装kubernetes</t>
+  </si>
+  <si>
+    <t>查看kubernetes是否安装的源来自estuary</t>
+  </si>
+  <si>
+    <t>查看kubernetes版本是否为 1.6.4</t>
+  </si>
+  <si>
+    <t>能否配置k8s-master的kubernetes-apiserver</t>
+  </si>
+  <si>
+    <t>能否配置k8s-master的kubernetes配置文件</t>
+  </si>
+  <si>
+    <t>能否启动k8s-master的kube-apiserver服务</t>
+  </si>
+  <si>
+    <t>能否启动启动k8s-master的kube-controller-manager服务</t>
+  </si>
+  <si>
+    <t>能否修改k8s-node-1/k8s-node-2的kubernetes配置文件</t>
+  </si>
+  <si>
+    <t>能否修改k8s-node-1的kubelet配置</t>
+  </si>
+  <si>
+    <t>能否修改k8s-node-2的kubelet配置</t>
+  </si>
+  <si>
+    <t>能否修改docker的cgroup驱动</t>
+  </si>
+  <si>
+    <t>能否重启docker服务</t>
+  </si>
+  <si>
+    <t>能否启动k8s-node-1/k8s-node-2的kubelet服务</t>
+  </si>
+  <si>
+    <t>能否启动k8s-node-1/k8s-node-2的kube-proxy服务</t>
+  </si>
+  <si>
+    <t>在master查看集群中节点及节点状态</t>
+  </si>
+  <si>
+    <t>能否所有机器安装flannel</t>
+  </si>
+  <si>
+    <t>能否配置所有节点的Fannel</t>
+  </si>
+  <si>
+    <t>能否配置etcd中关于flannel的key</t>
+  </si>
+  <si>
+    <t>能否启动各节点的flannel服务</t>
+  </si>
+  <si>
+    <t>能否重新启动master上的各服务</t>
+  </si>
+  <si>
+    <t>能否重启启动k8s-node-1/k8s-node-2各服务</t>
+  </si>
+  <si>
+    <t>能否启动一个简单的容器</t>
+  </si>
+  <si>
+    <t>查看创建的pod</t>
+  </si>
+  <si>
+    <t>通过端口将应用连接到Internet上</t>
+  </si>
+  <si>
+    <t>用kubectl查看rc</t>
+  </si>
+  <si>
+    <t>用kubectl查看service</t>
+  </si>
+  <si>
+    <t>能否创建启动容器的yaml配置文件</t>
+  </si>
+  <si>
+    <t>能否通过这个YAML文件创建pod</t>
+  </si>
+  <si>
+    <t>检验配置文件的正确性</t>
+  </si>
+  <si>
+    <t>查看pod状态</t>
+  </si>
+  <si>
+    <t>查看pod输出</t>
+  </si>
+  <si>
+    <t>删除容器&amp;pod</t>
+  </si>
+  <si>
+    <t>能否各节点卸载 kubernetes</t>
+  </si>
+  <si>
+    <t>能否各节点卸载 flannel &amp; ntp &amp; etcd &amp; docker</t>
   </si>
   <si>
     <t>pipework
@@ -1875,6 +2031,46 @@
       </rPr>
       <t>pipework</t>
     </r>
+  </si>
+  <si>
+    <t>etcd
+3.1.9</t>
+  </si>
+  <si>
+    <t>能否安装estuary源</t>
+  </si>
+  <si>
+    <t>etcd.sh</t>
+  </si>
+  <si>
+    <t>能否安装etcd</t>
+  </si>
+  <si>
+    <t>能否单机模式下运行etcd</t>
+  </si>
+  <si>
+    <t>能否etcdtcl创建一个键值对</t>
+  </si>
+  <si>
+    <t>能否etcdtcl检索键值</t>
+  </si>
+  <si>
+    <t>能否结束单机模式</t>
+  </si>
+  <si>
+    <t>能否在单机上通过不同的端口，静态配置etcd，部署伪集群模式</t>
+  </si>
+  <si>
+    <t>查看集群成员</t>
+  </si>
+  <si>
+    <t>检查集群健康状态</t>
+  </si>
+  <si>
+    <t>能否结束伪集群模式</t>
+  </si>
+  <si>
+    <t>能否卸载etcd</t>
   </si>
   <si>
     <t>cadvisor
@@ -1958,19 +2154,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <name val="AR PL UKai CN"/>
@@ -1980,6 +2170,12 @@
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2002,10 +2198,11 @@
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2014,11 +2211,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF660066"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2041,63 +2237,27 @@
       <i/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2108,9 +2268,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2118,7 +2293,73 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2126,8 +2367,16 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2138,92 +2387,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2254,25 +2436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2284,7 +2448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2296,7 +2466,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2308,103 +2496,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2422,7 +2520,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2434,12 +2580,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2547,13 +2729,37 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -2583,11 +2789,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2603,45 +2824,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2664,8 +2846,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2680,327 +2862,354 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="41">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="44" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="4" borderId="4" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="11" fillId="4" borderId="4" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="4" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="4" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="44" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="常规" xfId="5"/>
+    <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="7" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="9" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="10" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="11" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="14" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="15" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="21" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
+    <cellStyle name="Bad" xfId="24" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
+    <cellStyle name="Total" xfId="26" builtinId="25"/>
+    <cellStyle name="Output" xfId="27" builtinId="21"/>
+    <cellStyle name="Currency" xfId="28" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="29" builtinId="38"/>
+    <cellStyle name="Note" xfId="30" builtinId="10"/>
+    <cellStyle name="Input" xfId="31" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="32" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="33" builtinId="22"/>
+    <cellStyle name="Good" xfId="34" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="35" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="36" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="37" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="38" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="39" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50"/>
+    <cellStyle name="Title" xfId="41" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="42" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="43" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="46" builtinId="17"/>
+    <cellStyle name="Comma" xfId="47" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="48" builtinId="23"/>
+    <cellStyle name="Percent" xfId="49" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -3099,10 +3308,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="212121"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F3F3F3"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3353,1845 +3562,3243 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K47" sqref="K47"/>
+      <selection pane="bottomLeft" activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="18.8148148148148" style="3"/>
+    <col min="1" max="1" width="18.8148148148148" style="2"/>
     <col min="2" max="2" width="31.8518518518519"/>
     <col min="3" max="3" width="13.7185185185185"/>
-    <col min="4" max="5" width="10.0888888888889" style="3"/>
+    <col min="4" max="4" width="17.7777777777778" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.0888888888889" style="2"/>
     <col min="6" max="6" width="13.7185185185185"/>
-    <col min="7" max="7" width="14.0148148148148" style="4"/>
+    <col min="7" max="7" width="14.0148148148148" style="3"/>
     <col min="8" max="8" width="10.0888888888889"/>
-    <col min="9" max="9" width="39.6888888888889" style="5"/>
+    <col min="9" max="9" width="39.6888888888889" style="4"/>
     <col min="10" max="1025" width="13.7185185185185"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+    <row r="1" customFormat="1" ht="36" customHeight="1" spans="1:9">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:9">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="28"/>
+      <c r="E2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:9">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="28"/>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:9">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="28"/>
+      <c r="C4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:9">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="28"/>
+      <c r="C5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:9">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="28"/>
+      <c r="C6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:9">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="28"/>
+      <c r="C7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:9">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="28"/>
+      <c r="C8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:9">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="22" t="s">
+      <c r="C9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="28"/>
+      <c r="H9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" ht="19" customHeight="1" spans="1:9">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="22" t="s">
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="28"/>
+      <c r="H10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" ht="19" customHeight="1" spans="1:9">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="22" t="s">
+      <c r="C11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="28"/>
+      <c r="H11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" ht="19" customHeight="1" spans="1:9">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="28"/>
+      <c r="C12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" ht="19" customHeight="1" spans="1:9">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="22" t="s">
+      <c r="C13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="28"/>
+      <c r="H13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:9">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="28"/>
+      <c r="C14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:9">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="28"/>
+      <c r="E15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:9">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="28"/>
+      <c r="C16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:9">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="28"/>
+      <c r="C17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:9">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="28"/>
+      <c r="C18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:9">
-      <c r="A19" s="8"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="28"/>
+      <c r="C19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" ht="19" customHeight="1" spans="1:9">
-      <c r="A20" s="8"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="28"/>
+      <c r="C20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="21"/>
     </row>
     <row r="21" ht="19" customHeight="1" spans="1:9">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="28"/>
+      <c r="C21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="21"/>
     </row>
     <row r="22" ht="19" customHeight="1" spans="1:9">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="28"/>
+      <c r="C22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="21"/>
     </row>
     <row r="23" ht="19" customHeight="1" spans="1:9">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="28"/>
+      <c r="C23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="21"/>
     </row>
     <row r="24" ht="19" customHeight="1" spans="1:9">
-      <c r="A24" s="8"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="28"/>
+      <c r="C24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="21"/>
     </row>
     <row r="25" ht="19" customHeight="1" spans="1:9">
-      <c r="A25" s="8"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="28"/>
+      <c r="C25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="21"/>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:9">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="28"/>
+      <c r="C26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="21"/>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:9">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="28"/>
+      <c r="C27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="21"/>
     </row>
     <row r="28" ht="19" customHeight="1" spans="1:9">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="28"/>
+      <c r="C28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="21"/>
     </row>
     <row r="29" ht="19" customHeight="1" spans="1:9">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="28"/>
+      <c r="C29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="21"/>
     </row>
     <row r="30" ht="19" customHeight="1" spans="1:9">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="28"/>
+      <c r="C30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="21"/>
     </row>
     <row r="31" ht="19" customHeight="1" spans="1:9">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="28"/>
+      <c r="E31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="21"/>
     </row>
     <row r="32" ht="19" customHeight="1" spans="1:9">
-      <c r="A32" s="13"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="28"/>
+      <c r="C32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="21"/>
     </row>
     <row r="33" ht="19" customHeight="1" spans="1:9">
-      <c r="A33" s="13"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="28"/>
+      <c r="C33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="21"/>
     </row>
     <row r="34" ht="19" customHeight="1" spans="1:9">
-      <c r="A34" s="13"/>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="28"/>
+      <c r="C34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="21"/>
     </row>
     <row r="35" ht="19" customHeight="1" spans="1:9">
-      <c r="A35" s="13"/>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="28"/>
+      <c r="C35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="21"/>
     </row>
     <row r="36" ht="19" customHeight="1" spans="1:9">
-      <c r="A36" s="13"/>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="28"/>
+      <c r="C36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="21"/>
     </row>
     <row r="37" ht="19" customHeight="1" spans="1:9">
-      <c r="A37" s="13"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="28"/>
+      <c r="C37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="21"/>
     </row>
     <row r="38" ht="19" customHeight="1" spans="1:9">
-      <c r="A38" s="13"/>
-      <c r="B38" s="12" t="s">
+      <c r="A38" s="12"/>
+      <c r="B38" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="28"/>
+      <c r="C38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="21"/>
     </row>
     <row r="39" ht="19" customHeight="1" spans="1:9">
-      <c r="A39" s="13"/>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="28"/>
+      <c r="C39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="21"/>
     </row>
     <row r="40" ht="19" customHeight="1" spans="1:9">
-      <c r="A40" s="13"/>
-      <c r="B40" s="9" t="s">
+      <c r="A40" s="12"/>
+      <c r="B40" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="28"/>
+      <c r="C40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="21"/>
     </row>
     <row r="41" ht="19" customHeight="1" spans="1:9">
-      <c r="A41" s="13"/>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="28"/>
+      <c r="C41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="21"/>
     </row>
     <row r="42" ht="19" customHeight="1" spans="1:9">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="22"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="29" t="s">
+      <c r="G42" s="17"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="22" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="43" ht="19" customHeight="1" spans="1:9">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="11" t="s">
+      <c r="C43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E43" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="28"/>
+      <c r="E43" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="21"/>
     </row>
     <row r="44" ht="19" customHeight="1" spans="1:9">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="7"/>
+      <c r="B44" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="28"/>
+      <c r="C44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="21"/>
     </row>
     <row r="45" ht="19" customHeight="1" spans="1:9">
-      <c r="A45" s="8"/>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="7"/>
+      <c r="B45" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" s="28"/>
+      <c r="C45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="21"/>
     </row>
     <row r="46" ht="19" customHeight="1" spans="1:9">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9" t="s">
+      <c r="A46" s="7"/>
+      <c r="B46" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="22" t="s">
+      <c r="C46" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H46" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" s="28"/>
+      <c r="H46" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="21"/>
     </row>
     <row r="47" ht="19" customHeight="1" spans="1:9">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="7"/>
+      <c r="B47" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="22" t="s">
+      <c r="C47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H47" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" s="28"/>
+      <c r="H47" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="21"/>
     </row>
     <row r="48" ht="19" customHeight="1" spans="1:9">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9" t="s">
+      <c r="A48" s="7"/>
+      <c r="B48" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="22" t="s">
+      <c r="C48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="28"/>
+      <c r="H48" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="21"/>
     </row>
     <row r="49" ht="19" customHeight="1" spans="1:9">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="7"/>
+      <c r="B49" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="22" t="s">
+      <c r="C49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H49" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="28"/>
+      <c r="H49" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="21"/>
     </row>
     <row r="50" ht="19" customHeight="1" spans="1:9">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9" t="s">
+      <c r="A50" s="7"/>
+      <c r="B50" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="22" t="s">
+      <c r="C50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H50" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="28"/>
+      <c r="H50" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="21"/>
     </row>
     <row r="51" ht="19" customHeight="1" spans="1:9">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9" t="s">
+      <c r="A51" s="7"/>
+      <c r="B51" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="22" t="s">
+      <c r="C51" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H51" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="28"/>
+      <c r="H51" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="21"/>
     </row>
     <row r="52" ht="19" customHeight="1" spans="1:9">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9" t="s">
+      <c r="A52" s="7"/>
+      <c r="B52" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="22" t="s">
+      <c r="C52" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H52" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="28"/>
+      <c r="H52" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="21"/>
     </row>
     <row r="53" ht="19" customHeight="1" spans="1:9">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9" t="s">
+      <c r="A53" s="7"/>
+      <c r="B53" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="22" t="s">
+      <c r="C53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H53" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="28"/>
+      <c r="H53" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="21"/>
     </row>
     <row r="54" ht="19" customHeight="1" spans="1:9">
-      <c r="A54" s="8"/>
-      <c r="B54" s="9" t="s">
+      <c r="A54" s="7"/>
+      <c r="B54" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="22" t="s">
+      <c r="C54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H54" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="28"/>
+      <c r="H54" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="21"/>
     </row>
     <row r="55" ht="19" customHeight="1" spans="1:9">
-      <c r="A55" s="8"/>
-      <c r="B55" s="9" t="s">
+      <c r="A55" s="7"/>
+      <c r="B55" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="22" t="s">
+      <c r="C55" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H55" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" s="28"/>
+      <c r="H55" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="21"/>
     </row>
     <row r="56" ht="19" customHeight="1" spans="1:9">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="22"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="30"/>
-    </row>
-    <row r="57" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
-      <c r="A57" s="16" t="s">
+      <c r="B56" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="C56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C57" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="19" t="s">
+      <c r="E56" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="21"/>
+    </row>
+    <row r="57" ht="19" customHeight="1" spans="1:9">
+      <c r="A57" s="7"/>
+      <c r="B57" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E57" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" s="31"/>
-    </row>
-    <row r="58" s="2" customFormat="1" spans="1:9">
-      <c r="A58" s="16"/>
-      <c r="B58" s="17" t="s">
+      <c r="C57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" s="31"/>
-    </row>
-    <row r="59" s="2" customFormat="1" spans="1:9">
-      <c r="A59" s="16"/>
-      <c r="B59" s="17" t="s">
+      <c r="F57" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="21"/>
+    </row>
+    <row r="58" ht="19" customHeight="1" spans="1:9">
+      <c r="A58" s="7"/>
+      <c r="B58" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" s="31"/>
-    </row>
-    <row r="60" s="2" customFormat="1" spans="1:9">
-      <c r="A60" s="16"/>
-      <c r="B60" s="17" t="s">
+      <c r="C58" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="21"/>
+    </row>
+    <row r="59" ht="19" customHeight="1" spans="1:9">
+      <c r="A59" s="7"/>
+      <c r="B59" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="31"/>
-    </row>
-    <row r="61" s="2" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A61" s="16"/>
-      <c r="B61" s="17" t="s">
+      <c r="C59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="21"/>
+    </row>
+    <row r="60" ht="19" customHeight="1" spans="1:9">
+      <c r="A60" s="7"/>
+      <c r="B60" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" s="31"/>
-    </row>
-    <row r="62" s="2" customFormat="1" spans="1:9">
-      <c r="A62" s="16"/>
-      <c r="B62" s="17" t="s">
+      <c r="C60" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="21"/>
+    </row>
+    <row r="61" ht="19" customHeight="1" spans="1:9">
+      <c r="A61" s="7"/>
+      <c r="B61" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I62" s="31"/>
-    </row>
-    <row r="63" s="2" customFormat="1" spans="1:9">
-      <c r="A63" s="16"/>
-      <c r="B63" s="17" t="s">
+      <c r="C61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="21"/>
+    </row>
+    <row r="62" ht="19" customHeight="1" spans="1:9">
+      <c r="A62" s="7"/>
+      <c r="B62" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" s="31"/>
-    </row>
-    <row r="64" s="2" customFormat="1" spans="1:9">
-      <c r="A64" s="16"/>
-      <c r="B64" s="17" t="s">
+      <c r="C62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="21"/>
+    </row>
+    <row r="63" ht="19" customHeight="1" spans="1:9">
+      <c r="A63" s="7"/>
+      <c r="B63" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H64" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="31"/>
-    </row>
-    <row r="65" s="2" customFormat="1" spans="1:9">
-      <c r="A65" s="16"/>
-      <c r="B65" s="17" t="s">
+      <c r="C63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="21"/>
+    </row>
+    <row r="64" ht="19" customHeight="1" spans="1:9">
+      <c r="A64" s="7"/>
+      <c r="B64" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="19"/>
-      <c r="E65" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="31"/>
-    </row>
-    <row r="66" s="2" customFormat="1" spans="1:9">
-      <c r="A66" s="16"/>
-      <c r="B66" s="17" t="s">
+      <c r="C64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="21"/>
+    </row>
+    <row r="65" ht="19" customHeight="1" spans="1:9">
+      <c r="A65" s="7"/>
+      <c r="B65" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C66" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="19"/>
-      <c r="E66" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H66" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="31"/>
-    </row>
-    <row r="67" s="2" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
-      <c r="A67" s="16"/>
-      <c r="B67" s="17" t="s">
+      <c r="C65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="21"/>
+    </row>
+    <row r="66" ht="19" customHeight="1" spans="1:9">
+      <c r="A66" s="7"/>
+      <c r="B66" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="31"/>
-    </row>
-    <row r="68" s="2" customFormat="1" spans="1:9">
-      <c r="A68" s="16"/>
-      <c r="B68" s="17" t="s">
+      <c r="C66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="21"/>
+    </row>
+    <row r="67" ht="19" customHeight="1" spans="1:9">
+      <c r="A67" s="7"/>
+      <c r="B67" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="31"/>
-    </row>
-    <row r="69" s="2" customFormat="1" spans="1:9">
-      <c r="A69" s="16"/>
-      <c r="B69" s="17" t="s">
+      <c r="C67" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="10"/>
+      <c r="E67" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="21"/>
+    </row>
+    <row r="68" ht="19" customHeight="1" spans="1:9">
+      <c r="A68" s="7"/>
+      <c r="B68" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="19"/>
-      <c r="E69" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="31"/>
-    </row>
-    <row r="70" s="2" customFormat="1" spans="1:9">
-      <c r="A70" s="16"/>
-      <c r="B70" s="17" t="s">
+      <c r="C68" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="21"/>
+    </row>
+    <row r="69" ht="19" customHeight="1" spans="1:9">
+      <c r="A69" s="7"/>
+      <c r="B69" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="19"/>
-      <c r="E70" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="31"/>
-    </row>
-    <row r="71" s="2" customFormat="1" spans="1:9">
-      <c r="A71" s="16"/>
-      <c r="B71" s="17" t="s">
+      <c r="C69" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="21"/>
+    </row>
+    <row r="70" ht="19" customHeight="1" spans="1:9">
+      <c r="A70" s="7"/>
+      <c r="B70" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="31"/>
-    </row>
-    <row r="72" s="2" customFormat="1" spans="1:9">
-      <c r="A72" s="16"/>
-      <c r="B72" s="17" t="s">
+      <c r="C70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="10"/>
+      <c r="E70" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="21"/>
+    </row>
+    <row r="71" ht="19" customHeight="1" spans="1:9">
+      <c r="A71" s="7"/>
+      <c r="B71" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C72" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="19"/>
-      <c r="E72" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H72" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" s="31"/>
-    </row>
-    <row r="73" s="2" customFormat="1" spans="1:9">
-      <c r="A73" s="16"/>
-      <c r="B73" s="17" t="s">
+      <c r="C71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="10"/>
+      <c r="E71" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="21"/>
+    </row>
+    <row r="72" ht="19" customHeight="1" spans="1:9">
+      <c r="A72" s="7"/>
+      <c r="B72" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C73" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="19"/>
-      <c r="E73" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H73" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="31"/>
-    </row>
-    <row r="74" s="2" customFormat="1" spans="1:9">
-      <c r="A74" s="16"/>
-      <c r="B74" s="17" t="s">
+      <c r="C72" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="10"/>
+      <c r="E72" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="21"/>
+    </row>
+    <row r="73" ht="19" customHeight="1" spans="1:9">
+      <c r="A73" s="7"/>
+      <c r="B73" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C74" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="19"/>
-      <c r="E74" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H74" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="31"/>
-    </row>
-    <row r="75" ht="13.5" customHeight="1" spans="1:9">
-      <c r="A75" s="32" t="s">
+      <c r="C73" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="10"/>
+      <c r="E73" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="21"/>
+    </row>
+    <row r="74" ht="19" customHeight="1" spans="1:9">
+      <c r="A74" s="7"/>
+      <c r="B74" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B75" s="33" t="s">
+      <c r="C74" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="10"/>
+      <c r="E74" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="21"/>
+    </row>
+    <row r="75" ht="19" customHeight="1" spans="1:9">
+      <c r="A75" s="7"/>
+      <c r="B75" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C75" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="34"/>
-      <c r="E75" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="31" t="s">
+      <c r="C75" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="21"/>
+    </row>
+    <row r="76" ht="19" customHeight="1" spans="1:9">
+      <c r="A76" s="7"/>
+      <c r="B76" s="14" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="76" ht="15.75" spans="1:9">
-      <c r="A76" s="32"/>
-      <c r="B76" s="33" t="s">
+      <c r="C76" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="10"/>
+      <c r="E76" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="21"/>
+    </row>
+    <row r="77" ht="19" customHeight="1" spans="1:9">
+      <c r="A77" s="7"/>
+      <c r="B77" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C76" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="34"/>
-      <c r="E76" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" s="22" t="s">
+      <c r="C77" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="10"/>
+      <c r="E77" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" s="21"/>
+    </row>
+    <row r="78" ht="19" customHeight="1" spans="1:9">
+      <c r="A78" s="7"/>
+      <c r="B78" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="10"/>
+      <c r="E78" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="21"/>
+    </row>
+    <row r="79" ht="19" customHeight="1" spans="1:9">
+      <c r="A79" s="7"/>
+      <c r="B79" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="10"/>
+      <c r="E79" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="21"/>
+    </row>
+    <row r="80" ht="19" customHeight="1" spans="1:9">
+      <c r="A80" s="7"/>
+      <c r="B80" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="10"/>
+      <c r="E80" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="21"/>
+    </row>
+    <row r="81" ht="19" customHeight="1" spans="1:9">
+      <c r="A81" s="7"/>
+      <c r="B81" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="10"/>
+      <c r="E81" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="21"/>
+    </row>
+    <row r="82" ht="19" customHeight="1" spans="1:9">
+      <c r="A82" s="7"/>
+      <c r="B82" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="10"/>
+      <c r="E82" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" s="21"/>
+    </row>
+    <row r="83" ht="19" customHeight="1" spans="1:9">
+      <c r="A83" s="7"/>
+      <c r="B83" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="10"/>
+      <c r="E83" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="21"/>
+    </row>
+    <row r="84" ht="19" customHeight="1" spans="1:9">
+      <c r="A84" s="7"/>
+      <c r="B84" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="21"/>
+    </row>
+    <row r="85" ht="19" customHeight="1" spans="1:9">
+      <c r="A85" s="7"/>
+      <c r="B85" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="10"/>
+      <c r="E85" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="21"/>
+    </row>
+    <row r="86" ht="19" customHeight="1" spans="1:9">
+      <c r="A86" s="7"/>
+      <c r="B86" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="10"/>
+      <c r="E86" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" s="21"/>
+    </row>
+    <row r="87" ht="19" customHeight="1" spans="1:9">
+      <c r="A87" s="7"/>
+      <c r="B87" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="10"/>
+      <c r="E87" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" s="21"/>
+    </row>
+    <row r="88" ht="19" customHeight="1" spans="1:9">
+      <c r="A88" s="7"/>
+      <c r="B88" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="10"/>
+      <c r="E88" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" s="21"/>
+    </row>
+    <row r="89" ht="19" customHeight="1" spans="1:9">
+      <c r="A89" s="7"/>
+      <c r="B89" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="10"/>
+      <c r="E89" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G89" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" s="21"/>
+    </row>
+    <row r="90" ht="19" customHeight="1" spans="1:9">
+      <c r="A90" s="7"/>
+      <c r="B90" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="10"/>
+      <c r="E90" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G90" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" s="21"/>
+    </row>
+    <row r="91" ht="19" customHeight="1" spans="1:9">
+      <c r="A91" s="7"/>
+      <c r="B91" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="10"/>
+      <c r="E91" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G91" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" s="21"/>
+    </row>
+    <row r="92" ht="19" customHeight="1" spans="1:9">
+      <c r="A92" s="7"/>
+      <c r="B92" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="10"/>
+      <c r="E92" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G92" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" s="21"/>
+    </row>
+    <row r="93" ht="19" customHeight="1" spans="1:9">
+      <c r="A93" s="7"/>
+      <c r="B93" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="10"/>
+      <c r="E93" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G93" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" s="21"/>
+    </row>
+    <row r="94" ht="19" customHeight="1" spans="1:9">
+      <c r="A94" s="7"/>
+      <c r="B94" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="10"/>
+      <c r="E94" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="21"/>
+    </row>
+    <row r="95" ht="19" customHeight="1" spans="1:9">
+      <c r="A95" s="7"/>
+      <c r="B95" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="10"/>
+      <c r="E95" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" s="21"/>
+    </row>
+    <row r="96" ht="19" customHeight="1" spans="1:9">
+      <c r="A96" s="7"/>
+      <c r="B96" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="10"/>
+      <c r="E96" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G96" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="21"/>
+    </row>
+    <row r="97" ht="19" customHeight="1" spans="1:9">
+      <c r="A97" s="7"/>
+      <c r="B97" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="10"/>
+      <c r="E97" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G97" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" s="21"/>
+    </row>
+    <row r="98" ht="19" customHeight="1" spans="1:9">
+      <c r="A98" s="7"/>
+      <c r="B98" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="10"/>
+      <c r="E98" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" s="21"/>
+    </row>
+    <row r="99" ht="19" customHeight="1" spans="1:9">
+      <c r="A99" s="7"/>
+      <c r="B99" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="10"/>
+      <c r="E99" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" s="21"/>
+    </row>
+    <row r="100" ht="19" customHeight="1" spans="1:9">
+      <c r="A100" s="7"/>
+      <c r="B100" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="10"/>
+      <c r="E100" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G100" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" s="21"/>
+    </row>
+    <row r="101" ht="19" customHeight="1" spans="1:9">
+      <c r="A101" s="7"/>
+      <c r="B101" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="10"/>
+      <c r="E101" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G101" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" s="21"/>
+    </row>
+    <row r="102" ht="19" customHeight="1" spans="1:9">
+      <c r="A102" s="7"/>
+      <c r="B102" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="10"/>
+      <c r="E102" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G102" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" s="21"/>
+    </row>
+    <row r="103" ht="19" customHeight="1" spans="1:9">
+      <c r="A103" s="7"/>
+      <c r="B103" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="10"/>
+      <c r="E103" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G103" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" s="21"/>
+    </row>
+    <row r="104" ht="19" customHeight="1" spans="1:9">
+      <c r="A104" s="7"/>
+      <c r="B104" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="10"/>
+      <c r="E104" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" s="21"/>
+    </row>
+    <row r="105" ht="19" customHeight="1" spans="1:9">
+      <c r="A105" s="7"/>
+      <c r="B105" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="10"/>
+      <c r="E105" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G105" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I105" s="21"/>
+    </row>
+    <row r="106" ht="19" customHeight="1" spans="1:9">
+      <c r="A106" s="7"/>
+      <c r="B106" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="10"/>
+      <c r="E106" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G106" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" s="32"/>
+    </row>
+    <row r="107" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A107" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E107" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" s="33"/>
+    </row>
+    <row r="108" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A108" s="23"/>
+      <c r="B108" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="10"/>
+      <c r="E108" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" s="33"/>
+    </row>
+    <row r="109" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A109" s="23"/>
+      <c r="B109" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C109" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="10"/>
+      <c r="E109" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" s="33"/>
+    </row>
+    <row r="110" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A110" s="23"/>
+      <c r="B110" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C110" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="10"/>
+      <c r="E110" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" s="33"/>
+    </row>
+    <row r="111" s="1" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A111" s="23"/>
+      <c r="B111" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="10"/>
+      <c r="E111" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" s="33"/>
+    </row>
+    <row r="112" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A112" s="23"/>
+      <c r="B112" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="10"/>
+      <c r="E112" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" s="33"/>
+    </row>
+    <row r="113" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A113" s="23"/>
+      <c r="B113" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C113" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="10"/>
+      <c r="E113" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I113" s="33"/>
+    </row>
+    <row r="114" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A114" s="23"/>
+      <c r="B114" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="10"/>
+      <c r="E114" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I114" s="33"/>
+    </row>
+    <row r="115" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A115" s="23"/>
+      <c r="B115" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="10"/>
+      <c r="E115" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" s="33"/>
+    </row>
+    <row r="116" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A116" s="23"/>
+      <c r="B116" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="10"/>
+      <c r="E116" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H116" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I116" s="33"/>
+    </row>
+    <row r="117" s="1" customFormat="1" ht="18.95" customHeight="1" spans="1:9">
+      <c r="A117" s="23"/>
+      <c r="B117" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C117" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="10"/>
+      <c r="E117" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H117" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I117" s="33"/>
+    </row>
+    <row r="118" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A118" s="23"/>
+      <c r="B118" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="10"/>
+      <c r="E118" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I118" s="33"/>
+    </row>
+    <row r="119" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A119" s="23"/>
+      <c r="B119" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C119" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="10"/>
+      <c r="E119" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I119" s="33"/>
+    </row>
+    <row r="120" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A120" s="23"/>
+      <c r="B120" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="10"/>
+      <c r="E120" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I120" s="33"/>
+    </row>
+    <row r="121" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A121" s="23"/>
+      <c r="B121" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C121" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="10"/>
+      <c r="E121" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I121" s="33"/>
+    </row>
+    <row r="122" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A122" s="23"/>
+      <c r="B122" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C122" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="10"/>
+      <c r="E122" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I122" s="33"/>
+    </row>
+    <row r="123" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A123" s="23"/>
+      <c r="B123" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C123" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="10"/>
+      <c r="E123" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I123" s="33"/>
+    </row>
+    <row r="124" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A124" s="23"/>
+      <c r="B124" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C124" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="10"/>
+      <c r="E124" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I124" s="33"/>
+    </row>
+    <row r="125" s="1" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A125" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B125" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C125" s="25"/>
+      <c r="D125" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E125" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I125" s="33"/>
+    </row>
+    <row r="126" s="1" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A126" s="29"/>
+      <c r="B126" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C126" s="25"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I126" s="33"/>
+    </row>
+    <row r="127" s="1" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A127" s="29"/>
+      <c r="B127" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C127" s="25"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I127" s="33"/>
+    </row>
+    <row r="128" s="1" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A128" s="29"/>
+      <c r="B128" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C128" s="25"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I128" s="33"/>
+    </row>
+    <row r="129" s="1" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A129" s="29"/>
+      <c r="B129" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C129" s="25"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H129" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I129" s="33"/>
+    </row>
+    <row r="130" s="1" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A130" s="29"/>
+      <c r="B130" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C130" s="25"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I130" s="33"/>
+    </row>
+    <row r="131" s="1" customFormat="1" ht="24.75" spans="1:9">
+      <c r="A131" s="29"/>
+      <c r="B131" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C131" s="25"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I131" s="33"/>
+    </row>
+    <row r="132" s="1" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A132" s="29"/>
+      <c r="B132" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C132" s="25"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H132" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I132" s="33"/>
+    </row>
+    <row r="133" s="1" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A133" s="29"/>
+      <c r="B133" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C133" s="25"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H133" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I133" s="33"/>
+    </row>
+    <row r="134" s="1" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A134" s="29"/>
+      <c r="B134" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C134" s="25"/>
+      <c r="D134" s="28"/>
+      <c r="E134" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H134" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I134" s="33"/>
+    </row>
+    <row r="135" s="1" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A135" s="29"/>
+      <c r="B135" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C135" s="25"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I135" s="33"/>
+    </row>
+    <row r="136" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A136" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B136" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C136" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="37"/>
+      <c r="E136" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I136" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="35"/>
+      <c r="B137" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C137" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" s="37"/>
+      <c r="E137" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H76" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" spans="1:9">
-      <c r="A77" s="32"/>
-      <c r="B77" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="C77" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="34"/>
-      <c r="E77" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" s="22" t="s">
+      <c r="H137" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I137" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="35"/>
+      <c r="B138" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="C138" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="37"/>
+      <c r="E138" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H77" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="40" t="s">
-        <v>102</v>
+      <c r="H138" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I138" s="41" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I77"/>
-  <mergeCells count="12">
+  <autoFilter ref="A1:I138"/>
+  <mergeCells count="16">
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="A15:A30"/>
     <mergeCell ref="A31:A41"/>
     <mergeCell ref="A43:A55"/>
-    <mergeCell ref="A57:A74"/>
-    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A56:A106"/>
+    <mergeCell ref="A107:A124"/>
+    <mergeCell ref="A125:A135"/>
+    <mergeCell ref="A136:A138"/>
     <mergeCell ref="D2:D14"/>
     <mergeCell ref="D15:D30"/>
     <mergeCell ref="D31:D41"/>
     <mergeCell ref="D43:D55"/>
-    <mergeCell ref="D57:D74"/>
-    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="D56:D106"/>
+    <mergeCell ref="D107:D124"/>
+    <mergeCell ref="D125:D135"/>
+    <mergeCell ref="D136:D138"/>
   </mergeCells>
-  <conditionalFormatting sqref="G2:G76 G77">
+  <conditionalFormatting sqref="G124:G138 G2:G123">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -5200,12 +6807,12 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H2:H77"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G77">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I55 I56:I105"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H2:H55 H56:H106 H107:H123 H124:H135 H136:H138"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G55 G56:G106 G107:G123 G124:G135 G136:G138">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I55"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="PLS Select 请选择" sqref="F2:F56 F57:F77">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="PLS Select 请选择" sqref="F2:F55 F56:F106 F107:F123 F124:F135 F136:F138">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5214,9 +6821,17 @@
     <hyperlink ref="D15" r:id="rId2" display="docker.sh"/>
     <hyperlink ref="D31" r:id="rId3" display="lxc.sh"/>
     <hyperlink ref="D43" r:id="rId4" display="qemu.yaml"/>
-    <hyperlink ref="D57" r:id="rId5" display="pipework.sh"/>
+    <hyperlink ref="D107" r:id="rId5" display="pipework.sh"/>
+    <hyperlink ref="D2:D14" r:id="rId6" display="hhvm.sh"/>
+    <hyperlink ref="D15:D30" r:id="rId7" display="docker.sh"/>
+    <hyperlink ref="D31:D41" r:id="rId8" display="lxc.sh"/>
+    <hyperlink ref="D43:D55" r:id="rId9" display="qemu.yaml"/>
+    <hyperlink ref="D107:D124" r:id="rId10" display="pipework.sh"/>
+    <hyperlink ref="D56:D106" r:id="rId11" display="kubernetes.md"/>
+    <hyperlink ref="D125" r:id="rId12" display="etcd.sh"/>
+    <hyperlink ref="D125:D135" r:id="rId13" display="etcd.sh"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>

--- a/list/virtualization.xlsx
+++ b/list/virtualization.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$154</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190">
   <si>
     <t>测试项目</t>
   </si>
@@ -2071,6 +2071,521 @@
   </si>
   <si>
     <t>能否卸载etcd</t>
+  </si>
+  <si>
+    <t>lvs-keepalived</t>
+  </si>
+  <si>
+    <t>安装依赖文件</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>lvs-keepalived.md</t>
+  </si>
+  <si>
+    <t>陈双胜</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ipvsadm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>keepalived</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上开启转发功能</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上修改配置文件重新启动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nginx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>httpd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>启动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>apache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改配置文件并启动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RS</t>
+    </r>
+  </si>
+  <si>
+    <t>关闭防火墙功能</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上查看映射是否成功</t>
+    </r>
+  </si>
+  <si>
+    <t>测试负载均衡</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>停止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RS1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lvs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RS1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lvs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关闭主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>keepalived</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，查看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>slave lvs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关闭从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>keepalived</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。查看主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lvs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>停止所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，测试访问状态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>停止所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，测试访问状态</t>
+    </r>
   </si>
   <si>
     <t>cadvisor
@@ -2155,12 +2670,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <name val="AR PL UKai CN"/>
@@ -2263,6 +2778,31 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF3C3C3C"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="AR PL UKai CN"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -2283,50 +2823,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2334,22 +2830,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2364,6 +2846,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2372,23 +2882,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2402,14 +2897,59 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2436,7 +2976,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FF7F7F7F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2448,13 +3012,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2466,7 +3084,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2478,150 +3162,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2765,6 +3311,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2813,6 +3372,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2854,11 +3424,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2877,159 +3445,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
@@ -3042,7 +3601,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3137,6 +3696,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="44" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3146,16 +3720,32 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="4" borderId="4" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3562,12 +4152,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E104" sqref="E104"/>
+      <selection pane="bottomLeft" activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6473,7 +7063,9 @@
       <c r="B125" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="C125" s="25"/>
+      <c r="C125" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="D125" s="28" t="s">
         <v>154</v>
       </c>
@@ -6496,7 +7088,9 @@
       <c r="B126" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C126" s="25"/>
+      <c r="C126" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="D126" s="28"/>
       <c r="E126" s="30" t="s">
         <v>13</v>
@@ -6517,7 +7111,9 @@
       <c r="B127" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C127" s="25"/>
+      <c r="C127" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="D127" s="28"/>
       <c r="E127" s="30" t="s">
         <v>13</v>
@@ -6538,7 +7134,9 @@
       <c r="B128" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C128" s="25"/>
+      <c r="C128" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="D128" s="28"/>
       <c r="E128" s="30" t="s">
         <v>13</v>
@@ -6559,7 +7157,9 @@
       <c r="B129" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C129" s="25"/>
+      <c r="C129" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="D129" s="28"/>
       <c r="E129" s="30" t="s">
         <v>13</v>
@@ -6580,7 +7180,9 @@
       <c r="B130" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C130" s="25"/>
+      <c r="C130" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="D130" s="28"/>
       <c r="E130" s="30" t="s">
         <v>13</v>
@@ -6601,7 +7203,9 @@
       <c r="B131" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="C131" s="25"/>
+      <c r="C131" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="D131" s="28"/>
       <c r="E131" s="30" t="s">
         <v>13</v>
@@ -6622,7 +7226,9 @@
       <c r="B132" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="C132" s="25"/>
+      <c r="C132" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="D132" s="28"/>
       <c r="E132" s="30" t="s">
         <v>13</v>
@@ -6643,7 +7249,9 @@
       <c r="B133" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C133" s="25"/>
+      <c r="C133" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="D133" s="28"/>
       <c r="E133" s="30" t="s">
         <v>13</v>
@@ -6664,7 +7272,9 @@
       <c r="B134" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="C134" s="25"/>
+      <c r="C134" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="D134" s="28"/>
       <c r="E134" s="30" t="s">
         <v>13</v>
@@ -6685,7 +7295,9 @@
       <c r="B135" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="C135" s="25"/>
+      <c r="C135" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="D135" s="28"/>
       <c r="E135" s="30" t="s">
         <v>13</v>
@@ -6701,86 +7313,458 @@
       </c>
       <c r="I135" s="33"/>
     </row>
-    <row r="136" ht="13.5" customHeight="1" spans="1:9">
+    <row r="136" s="1" customFormat="1" ht="15" spans="1:9">
       <c r="A136" s="35" t="s">
         <v>165</v>
       </c>
       <c r="B136" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="C136" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D136" s="37"/>
-      <c r="E136" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F136" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H136" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I136" s="33" t="s">
+      <c r="C136" s="37" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="D136" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="E136" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F136" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G136" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I136" s="33"/>
+    </row>
+    <row r="137" s="1" customFormat="1" ht="15" spans="1:9">
       <c r="A137" s="35"/>
-      <c r="B137" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="C137" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D137" s="37"/>
-      <c r="E137" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F137" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" s="17" t="s">
+      <c r="B137" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C137" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D137" s="38"/>
+      <c r="E137" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F137" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G137" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I137" s="33"/>
+    </row>
+    <row r="138" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A138" s="35"/>
+      <c r="B138" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C138" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D138" s="38"/>
+      <c r="E138" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F138" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G138" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I138" s="33"/>
+    </row>
+    <row r="139" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A139" s="35"/>
+      <c r="B139" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C139" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D139" s="38"/>
+      <c r="E139" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F139" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G139" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I139" s="33"/>
+    </row>
+    <row r="140" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A140" s="35"/>
+      <c r="B140" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C140" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D140" s="38"/>
+      <c r="E140" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F140" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G140" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H140" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I140" s="33"/>
+    </row>
+    <row r="141" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A141" s="35"/>
+      <c r="B141" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C141" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D141" s="38"/>
+      <c r="E141" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F141" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G141" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I141" s="33"/>
+    </row>
+    <row r="142" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A142" s="35"/>
+      <c r="B142" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C142" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D142" s="38"/>
+      <c r="E142" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F142" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G142" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I142" s="33"/>
+    </row>
+    <row r="143" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A143" s="35"/>
+      <c r="B143" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="C143" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D143" s="38"/>
+      <c r="E143" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F143" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G143" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I143" s="33"/>
+    </row>
+    <row r="144" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A144" s="35"/>
+      <c r="B144" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C144" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D144" s="38"/>
+      <c r="E144" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F144" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G144" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I144" s="33"/>
+    </row>
+    <row r="145" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A145" s="35"/>
+      <c r="B145" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C145" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D145" s="38"/>
+      <c r="E145" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F145" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G145" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I145" s="33"/>
+    </row>
+    <row r="146" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A146" s="35"/>
+      <c r="B146" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C146" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D146" s="38"/>
+      <c r="E146" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F146" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G146" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I146" s="33"/>
+    </row>
+    <row r="147" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A147" s="35"/>
+      <c r="B147" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C147" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D147" s="38"/>
+      <c r="E147" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F147" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G147" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H147" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I147" s="33"/>
+    </row>
+    <row r="148" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A148" s="35"/>
+      <c r="B148" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="C148" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D148" s="38"/>
+      <c r="E148" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F148" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G148" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H148" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I148" s="33"/>
+    </row>
+    <row r="149" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A149" s="35"/>
+      <c r="B149" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C149" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D149" s="38"/>
+      <c r="E149" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F149" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G149" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H149" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I149" s="33"/>
+    </row>
+    <row r="150" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A150" s="35"/>
+      <c r="B150" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C150" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D150" s="38"/>
+      <c r="E150" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F150" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G150" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H150" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I150" s="33"/>
+    </row>
+    <row r="151" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A151" s="35"/>
+      <c r="B151" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C151" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D151" s="38"/>
+      <c r="E151" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F151" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G151" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I151" s="33"/>
+    </row>
+    <row r="152" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A152" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="B152" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="C152" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" s="42"/>
+      <c r="E152" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G152" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H152" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I152" s="33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="153" ht="17.25" spans="1:9">
+      <c r="A153" s="43"/>
+      <c r="B153" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="C153" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" s="42"/>
+      <c r="E153" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G153" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H137" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I137" s="33" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="35"/>
-      <c r="B138" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="C138" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D138" s="37"/>
-      <c r="E138" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F138" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" s="17" t="s">
+      <c r="H153" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I153" s="33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="154" ht="17.25" spans="1:9">
+      <c r="A154" s="43"/>
+      <c r="B154" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C154" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="42"/>
+      <c r="E154" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G154" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H138" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I138" s="41" t="s">
-        <v>167</v>
+      <c r="H154" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I154" s="51" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I138"/>
-  <mergeCells count="16">
+  <autoFilter ref="A1:I154"/>
+  <mergeCells count="18">
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="A15:A30"/>
     <mergeCell ref="A31:A41"/>
@@ -6788,7 +7772,8 @@
     <mergeCell ref="A56:A106"/>
     <mergeCell ref="A107:A124"/>
     <mergeCell ref="A125:A135"/>
-    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A136:A151"/>
+    <mergeCell ref="A152:A154"/>
     <mergeCell ref="D2:D14"/>
     <mergeCell ref="D15:D30"/>
     <mergeCell ref="D31:D41"/>
@@ -6796,9 +7781,10 @@
     <mergeCell ref="D56:D106"/>
     <mergeCell ref="D107:D124"/>
     <mergeCell ref="D125:D135"/>
-    <mergeCell ref="D136:D138"/>
+    <mergeCell ref="D136:D151"/>
+    <mergeCell ref="D152:D154"/>
   </mergeCells>
-  <conditionalFormatting sqref="G124:G138 G2:G123">
+  <conditionalFormatting sqref="G2:G154">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -6807,12 +7793,12 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H2:H55 H56:H106 H107:H123 H124:H135 H152:H154"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I55 I56:I105"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H2:H55 H56:H106 H107:H123 H124:H135 H136:H138"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G55 G56:G106 G107:G123 G124:G135 G136:G138">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G55 G56:G106 G107:G123 G124:G135 G136:G151 G152:G154">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="PLS Select 请选择" sqref="F2:F55 F56:F106 F107:F123 F124:F135 F136:F138">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="PLS Select 请选择" sqref="F2:F55 F56:F106 F107:F123 F124:F135 F136:F151 F152:F154">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6830,6 +7816,8 @@
     <hyperlink ref="D56:D106" r:id="rId11" display="kubernetes.md"/>
     <hyperlink ref="D125" r:id="rId12" display="etcd.sh"/>
     <hyperlink ref="D125:D135" r:id="rId13" display="etcd.sh"/>
+    <hyperlink ref="D136" r:id="rId14" display="lvs-keepalived.md"/>
+    <hyperlink ref="D136:D151" r:id="rId15" display="lvs-keepalived.md"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/list/virtualization.xlsx
+++ b/list/virtualization.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$155</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
   <si>
     <t>测试项目</t>
   </si>
@@ -2586,6 +2586,9 @@
       </rPr>
       <t>，测试访问状态</t>
     </r>
+  </si>
+  <si>
+    <t>kops 1.6.2</t>
   </si>
   <si>
     <t>cadvisor
@@ -2669,11 +2672,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2816,21 +2819,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -2839,10 +2827,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2854,23 +2842,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2883,7 +2857,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2891,6 +2865,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2905,7 +2886,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2921,6 +2916,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2929,21 +2939,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2988,7 +2991,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3000,7 +3033,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3018,138 +3051,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3162,12 +3063,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -3305,6 +3308,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -3374,11 +3403,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3394,6 +3421,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3416,32 +3458,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3450,145 +3479,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="36" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
@@ -3711,7 +3740,19 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="44" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3720,7 +3761,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3745,7 +3786,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4152,12 +4193,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F144" sqref="F144"/>
+      <selection pane="bottomLeft" activeCell="F142" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7326,16 +7367,16 @@
       <c r="D136" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="E136" s="45" t="s">
+      <c r="E136" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="F136" s="46" t="s">
+      <c r="F136" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G136" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="H136" s="48" t="s">
+      <c r="G136" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" s="52" t="s">
         <v>13</v>
       </c>
       <c r="I136" s="33"/>
@@ -7349,16 +7390,16 @@
         <v>167</v>
       </c>
       <c r="D137" s="38"/>
-      <c r="E137" s="45" t="s">
+      <c r="E137" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="F137" s="46" t="s">
+      <c r="F137" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G137" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="H137" s="48" t="s">
+      <c r="G137" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" s="52" t="s">
         <v>13</v>
       </c>
       <c r="I137" s="33"/>
@@ -7372,16 +7413,16 @@
         <v>167</v>
       </c>
       <c r="D138" s="38"/>
-      <c r="E138" s="45" t="s">
+      <c r="E138" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="F138" s="46" t="s">
+      <c r="F138" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G138" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="H138" s="48" t="s">
+      <c r="G138" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138" s="52" t="s">
         <v>13</v>
       </c>
       <c r="I138" s="33"/>
@@ -7395,16 +7436,16 @@
         <v>167</v>
       </c>
       <c r="D139" s="38"/>
-      <c r="E139" s="45" t="s">
+      <c r="E139" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="F139" s="46" t="s">
+      <c r="F139" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G139" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="H139" s="48" t="s">
+      <c r="G139" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" s="52" t="s">
         <v>13</v>
       </c>
       <c r="I139" s="33"/>
@@ -7418,16 +7459,16 @@
         <v>167</v>
       </c>
       <c r="D140" s="38"/>
-      <c r="E140" s="45" t="s">
+      <c r="E140" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="F140" s="46" t="s">
+      <c r="F140" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G140" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="H140" s="48" t="s">
+      <c r="G140" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H140" s="52" t="s">
         <v>13</v>
       </c>
       <c r="I140" s="33"/>
@@ -7441,16 +7482,16 @@
         <v>167</v>
       </c>
       <c r="D141" s="38"/>
-      <c r="E141" s="45" t="s">
+      <c r="E141" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="F141" s="46" t="s">
+      <c r="F141" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G141" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="H141" s="48" t="s">
+      <c r="G141" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" s="52" t="s">
         <v>13</v>
       </c>
       <c r="I141" s="33"/>
@@ -7464,16 +7505,16 @@
         <v>167</v>
       </c>
       <c r="D142" s="38"/>
-      <c r="E142" s="45" t="s">
+      <c r="E142" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="F142" s="46" t="s">
+      <c r="F142" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G142" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="H142" s="48" t="s">
+      <c r="G142" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142" s="52" t="s">
         <v>13</v>
       </c>
       <c r="I142" s="33"/>
@@ -7487,16 +7528,16 @@
         <v>167</v>
       </c>
       <c r="D143" s="38"/>
-      <c r="E143" s="45" t="s">
+      <c r="E143" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="F143" s="46" t="s">
+      <c r="F143" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G143" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="H143" s="48" t="s">
+      <c r="G143" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" s="52" t="s">
         <v>13</v>
       </c>
       <c r="I143" s="33"/>
@@ -7510,16 +7551,16 @@
         <v>167</v>
       </c>
       <c r="D144" s="38"/>
-      <c r="E144" s="45" t="s">
+      <c r="E144" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="F144" s="46" t="s">
+      <c r="F144" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G144" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="H144" s="48" t="s">
+      <c r="G144" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144" s="52" t="s">
         <v>13</v>
       </c>
       <c r="I144" s="33"/>
@@ -7533,16 +7574,16 @@
         <v>167</v>
       </c>
       <c r="D145" s="38"/>
-      <c r="E145" s="45" t="s">
+      <c r="E145" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="F145" s="46" t="s">
+      <c r="F145" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G145" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="H145" s="48" t="s">
+      <c r="G145" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145" s="52" t="s">
         <v>13</v>
       </c>
       <c r="I145" s="33"/>
@@ -7556,16 +7597,16 @@
         <v>167</v>
       </c>
       <c r="D146" s="38"/>
-      <c r="E146" s="45" t="s">
+      <c r="E146" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="F146" s="46" t="s">
+      <c r="F146" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G146" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="H146" s="48" t="s">
+      <c r="G146" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" s="52" t="s">
         <v>13</v>
       </c>
       <c r="I146" s="33"/>
@@ -7579,16 +7620,16 @@
         <v>167</v>
       </c>
       <c r="D147" s="38"/>
-      <c r="E147" s="45" t="s">
+      <c r="E147" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="F147" s="46" t="s">
+      <c r="F147" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G147" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="H147" s="48" t="s">
+      <c r="G147" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H147" s="52" t="s">
         <v>13</v>
       </c>
       <c r="I147" s="33"/>
@@ -7602,16 +7643,16 @@
         <v>167</v>
       </c>
       <c r="D148" s="38"/>
-      <c r="E148" s="45" t="s">
+      <c r="E148" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="F148" s="46" t="s">
+      <c r="F148" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G148" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="H148" s="48" t="s">
+      <c r="G148" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H148" s="52" t="s">
         <v>13</v>
       </c>
       <c r="I148" s="33"/>
@@ -7625,16 +7666,16 @@
         <v>167</v>
       </c>
       <c r="D149" s="38"/>
-      <c r="E149" s="45" t="s">
+      <c r="E149" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="F149" s="46" t="s">
+      <c r="F149" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G149" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="H149" s="48" t="s">
+      <c r="G149" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H149" s="52" t="s">
         <v>13</v>
       </c>
       <c r="I149" s="33"/>
@@ -7648,22 +7689,22 @@
         <v>167</v>
       </c>
       <c r="D150" s="38"/>
-      <c r="E150" s="45" t="s">
+      <c r="E150" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="F150" s="46" t="s">
+      <c r="F150" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G150" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="H150" s="48" t="s">
+      <c r="G150" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H150" s="52" t="s">
         <v>13</v>
       </c>
       <c r="I150" s="33"/>
     </row>
     <row r="151" s="1" customFormat="1" ht="15" spans="1:9">
-      <c r="A151" s="35"/>
+      <c r="A151" s="40"/>
       <c r="B151" s="36" t="s">
         <v>184</v>
       </c>
@@ -7671,85 +7712,77 @@
         <v>167</v>
       </c>
       <c r="D151" s="38"/>
-      <c r="E151" s="45" t="s">
+      <c r="E151" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="F151" s="46" t="s">
+      <c r="F151" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G151" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="H151" s="48" t="s">
+      <c r="G151" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151" s="52" t="s">
         <v>13</v>
       </c>
       <c r="I151" s="33"/>
     </row>
-    <row r="152" ht="13.5" customHeight="1" spans="1:9">
-      <c r="A152" s="40" t="s">
+    <row r="152" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A152" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="B152" s="41" t="s">
+      <c r="B152" s="42"/>
+      <c r="C152" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D152" s="43"/>
+      <c r="E152" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" s="31"/>
+      <c r="G152" s="17"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="33"/>
+    </row>
+    <row r="153" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A153" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="C152" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D152" s="42"/>
-      <c r="E152" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F152" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H152" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I152" s="33" t="s">
+      <c r="B153" s="45" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="153" ht="17.25" spans="1:9">
-      <c r="A153" s="43"/>
-      <c r="B153" s="41" t="s">
+      <c r="C153" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" s="46"/>
+      <c r="E153" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G153" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H153" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I153" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="C153" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D153" s="42"/>
-      <c r="E153" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F153" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H153" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I153" s="33" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="154" ht="17.25" spans="1:9">
-      <c r="A154" s="43"/>
-      <c r="B154" s="44" t="s">
+      <c r="A154" s="47"/>
+      <c r="B154" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="C154" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D154" s="42"/>
-      <c r="E154" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="F154" s="50" t="s">
+      <c r="C154" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="46"/>
+      <c r="E154" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" s="31" t="s">
         <v>14</v>
       </c>
       <c r="G154" s="17" t="s">
@@ -7758,12 +7791,37 @@
       <c r="H154" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I154" s="51" t="s">
-        <v>187</v>
+      <c r="I154" s="33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="155" ht="17.25" spans="1:9">
+      <c r="A155" s="47"/>
+      <c r="B155" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C155" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" s="46"/>
+      <c r="E155" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G155" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H155" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I155" s="55" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I154"/>
+  <autoFilter ref="A1:I155"/>
   <mergeCells count="18">
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="A15:A30"/>
@@ -7773,7 +7831,7 @@
     <mergeCell ref="A107:A124"/>
     <mergeCell ref="A125:A135"/>
     <mergeCell ref="A136:A151"/>
-    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="A153:A155"/>
     <mergeCell ref="D2:D14"/>
     <mergeCell ref="D15:D30"/>
     <mergeCell ref="D31:D41"/>
@@ -7782,9 +7840,9 @@
     <mergeCell ref="D107:D124"/>
     <mergeCell ref="D125:D135"/>
     <mergeCell ref="D136:D151"/>
-    <mergeCell ref="D152:D154"/>
+    <mergeCell ref="D153:D155"/>
   </mergeCells>
-  <conditionalFormatting sqref="G2:G154">
+  <conditionalFormatting sqref="G2:G155">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -7793,12 +7851,12 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H2:H55 H56:H106 H107:H123 H124:H135 H152:H154"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I55 I56:I105"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G55 G56:G106 G107:G123 G124:G135 G136:G151 G152:G154">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G152 G2:G55 G56:G106 G107:G123 G124:G135 G136:G151 G153:G155">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="PLS Select 请选择" sqref="F2:F55 F56:F106 F107:F123 F124:F135 F136:F151 F152:F154">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H152 H2:H55 H56:H106 H107:H123 H124:H135 H153:H155"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="PLS Select 请选择" sqref="F152 F2:F55 F56:F106 F107:F123 F124:F135 F136:F151 F153:F155">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/list/virtualization.xlsx
+++ b/list/virtualization.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
   <si>
     <t>测试项目</t>
   </si>
@@ -2665,6 +2665,9 @@
       </rPr>
       <t>cadvisor</t>
     </r>
+  </si>
+  <si>
+    <t>84/151</t>
   </si>
 </sst>
 </file>
@@ -2672,11 +2675,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2819,14 +2822,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -2834,11 +2829,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2848,8 +2844,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2863,15 +2866,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2886,7 +2889,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2899,37 +2902,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2946,7 +2919,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2991,24 +2994,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3033,7 +3018,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3045,7 +3048,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3057,49 +3126,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3111,61 +3144,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3401,11 +3404,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3425,32 +3434,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3466,11 +3456,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3479,136 +3482,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="15" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="36" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4193,12 +4196,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F142" sqref="F142"/>
+      <selection pane="bottomLeft" activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7818,6 +7821,11 @@
       </c>
       <c r="I155" s="55" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/list/virtualization.xlsx
+++ b/list/virtualization.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194">
   <si>
     <t>测试项目</t>
   </si>
@@ -1181,7 +1181,7 @@
     </r>
   </si>
   <si>
-    <t>qemu.yaml</t>
+    <t>qemu.sh</t>
   </si>
   <si>
     <r>
@@ -2591,6 +2591,9 @@
     <t>kops 1.6.2</t>
   </si>
   <si>
+    <t>kops.md</t>
+  </si>
+  <si>
     <t>cadvisor
 0.26.1</t>
   </si>
@@ -2622,6 +2625,9 @@
       </rPr>
       <t>源</t>
     </r>
+  </si>
+  <si>
+    <t>cadvisor.md</t>
   </si>
   <si>
     <t>已被 kubernetes中作废，下一版本将删除该测试项</t>
@@ -2675,11 +2681,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2808,11 +2814,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2821,12 +2822,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2851,14 +2849,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -2866,22 +2856,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2904,15 +2912,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2925,11 +2925,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2940,8 +2939,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2949,7 +2955,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3000,7 +3006,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3012,73 +3084,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3090,7 +3096,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3108,13 +3114,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3126,49 +3168,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3404,6 +3410,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3434,13 +3449,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3456,24 +3475,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3482,145 +3488,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
@@ -3761,14 +3767,17 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="44" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4199,9 +4208,9 @@
   <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B136" sqref="B136"/>
+      <selection pane="bottomLeft" activeCell="D125" sqref="D125:D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7370,16 +7379,16 @@
       <c r="D136" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="E136" s="49" t="s">
+      <c r="E136" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="F136" s="50" t="s">
+      <c r="F136" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="G136" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H136" s="52" t="s">
+      <c r="G136" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" s="53" t="s">
         <v>13</v>
       </c>
       <c r="I136" s="33"/>
@@ -7393,16 +7402,16 @@
         <v>167</v>
       </c>
       <c r="D137" s="38"/>
-      <c r="E137" s="49" t="s">
+      <c r="E137" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="F137" s="50" t="s">
+      <c r="F137" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="G137" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H137" s="52" t="s">
+      <c r="G137" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" s="53" t="s">
         <v>13</v>
       </c>
       <c r="I137" s="33"/>
@@ -7416,16 +7425,16 @@
         <v>167</v>
       </c>
       <c r="D138" s="38"/>
-      <c r="E138" s="49" t="s">
+      <c r="E138" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="F138" s="50" t="s">
+      <c r="F138" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="G138" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H138" s="52" t="s">
+      <c r="G138" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138" s="53" t="s">
         <v>13</v>
       </c>
       <c r="I138" s="33"/>
@@ -7439,16 +7448,16 @@
         <v>167</v>
       </c>
       <c r="D139" s="38"/>
-      <c r="E139" s="49" t="s">
+      <c r="E139" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="F139" s="50" t="s">
+      <c r="F139" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="G139" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H139" s="52" t="s">
+      <c r="G139" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" s="53" t="s">
         <v>13</v>
       </c>
       <c r="I139" s="33"/>
@@ -7462,16 +7471,16 @@
         <v>167</v>
       </c>
       <c r="D140" s="38"/>
-      <c r="E140" s="49" t="s">
+      <c r="E140" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="F140" s="50" t="s">
+      <c r="F140" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="G140" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H140" s="52" t="s">
+      <c r="G140" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H140" s="53" t="s">
         <v>13</v>
       </c>
       <c r="I140" s="33"/>
@@ -7485,16 +7494,16 @@
         <v>167</v>
       </c>
       <c r="D141" s="38"/>
-      <c r="E141" s="49" t="s">
+      <c r="E141" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="F141" s="50" t="s">
+      <c r="F141" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="G141" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H141" s="52" t="s">
+      <c r="G141" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" s="53" t="s">
         <v>13</v>
       </c>
       <c r="I141" s="33"/>
@@ -7508,16 +7517,16 @@
         <v>167</v>
       </c>
       <c r="D142" s="38"/>
-      <c r="E142" s="49" t="s">
+      <c r="E142" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="F142" s="50" t="s">
+      <c r="F142" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="G142" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H142" s="52" t="s">
+      <c r="G142" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142" s="53" t="s">
         <v>13</v>
       </c>
       <c r="I142" s="33"/>
@@ -7531,16 +7540,16 @@
         <v>167</v>
       </c>
       <c r="D143" s="38"/>
-      <c r="E143" s="49" t="s">
+      <c r="E143" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="F143" s="50" t="s">
+      <c r="F143" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="G143" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H143" s="52" t="s">
+      <c r="G143" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" s="53" t="s">
         <v>13</v>
       </c>
       <c r="I143" s="33"/>
@@ -7554,16 +7563,16 @@
         <v>167</v>
       </c>
       <c r="D144" s="38"/>
-      <c r="E144" s="49" t="s">
+      <c r="E144" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="F144" s="50" t="s">
+      <c r="F144" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="G144" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H144" s="52" t="s">
+      <c r="G144" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144" s="53" t="s">
         <v>13</v>
       </c>
       <c r="I144" s="33"/>
@@ -7577,16 +7586,16 @@
         <v>167</v>
       </c>
       <c r="D145" s="38"/>
-      <c r="E145" s="49" t="s">
+      <c r="E145" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="F145" s="50" t="s">
+      <c r="F145" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="G145" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H145" s="52" t="s">
+      <c r="G145" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145" s="53" t="s">
         <v>13</v>
       </c>
       <c r="I145" s="33"/>
@@ -7600,16 +7609,16 @@
         <v>167</v>
       </c>
       <c r="D146" s="38"/>
-      <c r="E146" s="49" t="s">
+      <c r="E146" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="F146" s="50" t="s">
+      <c r="F146" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="G146" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H146" s="52" t="s">
+      <c r="G146" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" s="53" t="s">
         <v>13</v>
       </c>
       <c r="I146" s="33"/>
@@ -7623,16 +7632,16 @@
         <v>167</v>
       </c>
       <c r="D147" s="38"/>
-      <c r="E147" s="49" t="s">
+      <c r="E147" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="F147" s="50" t="s">
+      <c r="F147" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="G147" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H147" s="52" t="s">
+      <c r="G147" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H147" s="53" t="s">
         <v>13</v>
       </c>
       <c r="I147" s="33"/>
@@ -7646,16 +7655,16 @@
         <v>167</v>
       </c>
       <c r="D148" s="38"/>
-      <c r="E148" s="49" t="s">
+      <c r="E148" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="F148" s="50" t="s">
+      <c r="F148" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="G148" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H148" s="52" t="s">
+      <c r="G148" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H148" s="53" t="s">
         <v>13</v>
       </c>
       <c r="I148" s="33"/>
@@ -7669,16 +7678,16 @@
         <v>167</v>
       </c>
       <c r="D149" s="38"/>
-      <c r="E149" s="49" t="s">
+      <c r="E149" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="F149" s="50" t="s">
+      <c r="F149" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="G149" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H149" s="52" t="s">
+      <c r="G149" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H149" s="53" t="s">
         <v>13</v>
       </c>
       <c r="I149" s="33"/>
@@ -7692,16 +7701,16 @@
         <v>167</v>
       </c>
       <c r="D150" s="38"/>
-      <c r="E150" s="49" t="s">
+      <c r="E150" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="F150" s="50" t="s">
+      <c r="F150" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="G150" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H150" s="52" t="s">
+      <c r="G150" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H150" s="53" t="s">
         <v>13</v>
       </c>
       <c r="I150" s="33"/>
@@ -7715,16 +7724,16 @@
         <v>167</v>
       </c>
       <c r="D151" s="38"/>
-      <c r="E151" s="49" t="s">
+      <c r="E151" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="F151" s="50" t="s">
+      <c r="F151" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="G151" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H151" s="52" t="s">
+      <c r="G151" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151" s="53" t="s">
         <v>13</v>
       </c>
       <c r="I151" s="33"/>
@@ -7737,7 +7746,9 @@
       <c r="C152" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="D152" s="43"/>
+      <c r="D152" s="43" t="s">
+        <v>186</v>
+      </c>
       <c r="E152" s="30" t="s">
         <v>13</v>
       </c>
@@ -7748,15 +7759,17 @@
     </row>
     <row r="153" ht="13.5" customHeight="1" spans="1:9">
       <c r="A153" s="44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B153" s="45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C153" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D153" s="46"/>
+      <c r="D153" s="46" t="s">
+        <v>189</v>
+      </c>
       <c r="E153" s="30" t="s">
         <v>13</v>
       </c>
@@ -7770,13 +7783,13 @@
         <v>13</v>
       </c>
       <c r="I153" s="33" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="154" ht="17.25" spans="1:9">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="47"/>
       <c r="B154" s="45" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C154" s="25" t="s">
         <v>11</v>
@@ -7795,22 +7808,22 @@
         <v>13</v>
       </c>
       <c r="I154" s="33" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="155" ht="17.25" spans="1:9">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="47"/>
       <c r="B155" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="C155" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C155" s="49" t="s">
         <v>11</v>
       </c>
       <c r="D155" s="46"/>
-      <c r="E155" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F155" s="54" t="s">
+      <c r="E155" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" s="55" t="s">
         <v>14</v>
       </c>
       <c r="G155" s="17" t="s">
@@ -7819,13 +7832,13 @@
       <c r="H155" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I155" s="55" t="s">
-        <v>188</v>
+      <c r="I155" s="56" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -7872,18 +7885,20 @@
     <hyperlink ref="D2" r:id="rId1" display="hhvm.sh"/>
     <hyperlink ref="D15" r:id="rId2" display="docker.sh"/>
     <hyperlink ref="D31" r:id="rId3" display="lxc.sh"/>
-    <hyperlink ref="D43" r:id="rId4" display="qemu.yaml"/>
+    <hyperlink ref="D43" r:id="rId4" display="qemu.sh"/>
     <hyperlink ref="D107" r:id="rId5" display="pipework.sh"/>
     <hyperlink ref="D2:D14" r:id="rId6" display="hhvm.sh"/>
     <hyperlink ref="D15:D30" r:id="rId7" display="docker.sh"/>
     <hyperlink ref="D31:D41" r:id="rId8" display="lxc.sh"/>
-    <hyperlink ref="D43:D55" r:id="rId9" display="qemu.yaml"/>
+    <hyperlink ref="D43:D55" r:id="rId9" display="qemu.sh"/>
     <hyperlink ref="D107:D124" r:id="rId10" display="pipework.sh"/>
     <hyperlink ref="D56:D106" r:id="rId11" display="kubernetes.md"/>
     <hyperlink ref="D125" r:id="rId12" display="etcd.sh"/>
     <hyperlink ref="D125:D135" r:id="rId13" display="etcd.sh"/>
     <hyperlink ref="D136" r:id="rId14" display="lvs-keepalived.md"/>
     <hyperlink ref="D136:D151" r:id="rId15" display="lvs-keepalived.md"/>
+    <hyperlink ref="D152" r:id="rId16" display="kops.md"/>
+    <hyperlink ref="D153:D155" r:id="rId17" display="cadvisor.md"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/list/virtualization.xlsx
+++ b/list/virtualization.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$173</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214">
   <si>
     <t>测试项目</t>
   </si>
@@ -2592,6 +2592,66 @@
   </si>
   <si>
     <t>kops.md</t>
+  </si>
+  <si>
+    <t>Open VSwitch</t>
+  </si>
+  <si>
+    <t>安装工具包</t>
+  </si>
+  <si>
+    <t>ovs.sh</t>
+  </si>
+  <si>
+    <t>安装open vswitch</t>
+  </si>
+  <si>
+    <t>启动open vswitch服务</t>
+  </si>
+  <si>
+    <t>启动ovsdb-server数据库</t>
+  </si>
+  <si>
+    <t>初始化ovs数据库</t>
+  </si>
+  <si>
+    <t>开启ovs-vswitchd后台进程</t>
+  </si>
+  <si>
+    <t>查看open vswitch版本</t>
+  </si>
+  <si>
+    <t>增加ovs虚拟网桥br0</t>
+  </si>
+  <si>
+    <t>列举所有ovs网桥</t>
+  </si>
+  <si>
+    <t>启用虚拟网桥br0</t>
+  </si>
+  <si>
+    <t>将物理网卡挂接到网桥</t>
+  </si>
+  <si>
+    <t>列出网桥中所有端口</t>
+  </si>
+  <si>
+    <t>列出所有挂接到网卡的网桥</t>
+  </si>
+  <si>
+    <t>查看open vswitch的网络状态</t>
+  </si>
+  <si>
+    <t>删除网桥上已挂接的网口</t>
+  </si>
+  <si>
+    <t>删除网桥</t>
+  </si>
+  <si>
+    <t>停止open vswitch服务</t>
+  </si>
+  <si>
+    <t>卸载open vswitch安装包</t>
   </si>
   <si>
     <t>cadvisor
@@ -2682,10 +2742,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2827,9 +2887,46 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2842,62 +2939,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2919,9 +2963,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2939,23 +3013,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3000,7 +3060,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3012,139 +3210,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3157,24 +3235,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3317,6 +3377,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -3327,19 +3400,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3466,15 +3526,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3483,141 +3534,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3626,7 +3686,7 @@
     </xf>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
@@ -3752,13 +3812,22 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="44" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="44" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="44" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4205,12 +4274,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D125" sqref="D125:D135"/>
+      <selection pane="bottomLeft" activeCell="D153" sqref="D153:D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7379,16 +7448,16 @@
       <c r="D136" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="E136" s="50" t="s">
+      <c r="E136" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="F136" s="51" t="s">
+      <c r="F136" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="G136" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H136" s="53" t="s">
+      <c r="G136" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" s="56" t="s">
         <v>13</v>
       </c>
       <c r="I136" s="33"/>
@@ -7402,16 +7471,16 @@
         <v>167</v>
       </c>
       <c r="D137" s="38"/>
-      <c r="E137" s="50" t="s">
+      <c r="E137" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="F137" s="51" t="s">
+      <c r="F137" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="G137" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H137" s="53" t="s">
+      <c r="G137" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" s="56" t="s">
         <v>13</v>
       </c>
       <c r="I137" s="33"/>
@@ -7425,16 +7494,16 @@
         <v>167</v>
       </c>
       <c r="D138" s="38"/>
-      <c r="E138" s="50" t="s">
+      <c r="E138" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="F138" s="51" t="s">
+      <c r="F138" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="G138" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H138" s="53" t="s">
+      <c r="G138" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138" s="56" t="s">
         <v>13</v>
       </c>
       <c r="I138" s="33"/>
@@ -7448,16 +7517,16 @@
         <v>167</v>
       </c>
       <c r="D139" s="38"/>
-      <c r="E139" s="50" t="s">
+      <c r="E139" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="F139" s="51" t="s">
+      <c r="F139" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="G139" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H139" s="53" t="s">
+      <c r="G139" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" s="56" t="s">
         <v>13</v>
       </c>
       <c r="I139" s="33"/>
@@ -7471,16 +7540,16 @@
         <v>167</v>
       </c>
       <c r="D140" s="38"/>
-      <c r="E140" s="50" t="s">
+      <c r="E140" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="F140" s="51" t="s">
+      <c r="F140" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="G140" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H140" s="53" t="s">
+      <c r="G140" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H140" s="56" t="s">
         <v>13</v>
       </c>
       <c r="I140" s="33"/>
@@ -7494,16 +7563,16 @@
         <v>167</v>
       </c>
       <c r="D141" s="38"/>
-      <c r="E141" s="50" t="s">
+      <c r="E141" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="F141" s="51" t="s">
+      <c r="F141" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="G141" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H141" s="53" t="s">
+      <c r="G141" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" s="56" t="s">
         <v>13</v>
       </c>
       <c r="I141" s="33"/>
@@ -7517,16 +7586,16 @@
         <v>167</v>
       </c>
       <c r="D142" s="38"/>
-      <c r="E142" s="50" t="s">
+      <c r="E142" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="F142" s="51" t="s">
+      <c r="F142" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="G142" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H142" s="53" t="s">
+      <c r="G142" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142" s="56" t="s">
         <v>13</v>
       </c>
       <c r="I142" s="33"/>
@@ -7540,16 +7609,16 @@
         <v>167</v>
       </c>
       <c r="D143" s="38"/>
-      <c r="E143" s="50" t="s">
+      <c r="E143" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="F143" s="51" t="s">
+      <c r="F143" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="G143" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H143" s="53" t="s">
+      <c r="G143" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" s="56" t="s">
         <v>13</v>
       </c>
       <c r="I143" s="33"/>
@@ -7563,16 +7632,16 @@
         <v>167</v>
       </c>
       <c r="D144" s="38"/>
-      <c r="E144" s="50" t="s">
+      <c r="E144" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="F144" s="51" t="s">
+      <c r="F144" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="G144" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H144" s="53" t="s">
+      <c r="G144" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144" s="56" t="s">
         <v>13</v>
       </c>
       <c r="I144" s="33"/>
@@ -7586,16 +7655,16 @@
         <v>167</v>
       </c>
       <c r="D145" s="38"/>
-      <c r="E145" s="50" t="s">
+      <c r="E145" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="F145" s="51" t="s">
+      <c r="F145" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="G145" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H145" s="53" t="s">
+      <c r="G145" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145" s="56" t="s">
         <v>13</v>
       </c>
       <c r="I145" s="33"/>
@@ -7609,16 +7678,16 @@
         <v>167</v>
       </c>
       <c r="D146" s="38"/>
-      <c r="E146" s="50" t="s">
+      <c r="E146" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="F146" s="51" t="s">
+      <c r="F146" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="G146" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H146" s="53" t="s">
+      <c r="G146" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" s="56" t="s">
         <v>13</v>
       </c>
       <c r="I146" s="33"/>
@@ -7632,16 +7701,16 @@
         <v>167</v>
       </c>
       <c r="D147" s="38"/>
-      <c r="E147" s="50" t="s">
+      <c r="E147" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="F147" s="51" t="s">
+      <c r="F147" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="G147" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H147" s="53" t="s">
+      <c r="G147" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H147" s="56" t="s">
         <v>13</v>
       </c>
       <c r="I147" s="33"/>
@@ -7655,16 +7724,16 @@
         <v>167</v>
       </c>
       <c r="D148" s="38"/>
-      <c r="E148" s="50" t="s">
+      <c r="E148" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="F148" s="51" t="s">
+      <c r="F148" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="G148" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H148" s="53" t="s">
+      <c r="G148" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H148" s="56" t="s">
         <v>13</v>
       </c>
       <c r="I148" s="33"/>
@@ -7678,16 +7747,16 @@
         <v>167</v>
       </c>
       <c r="D149" s="38"/>
-      <c r="E149" s="50" t="s">
+      <c r="E149" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="F149" s="51" t="s">
+      <c r="F149" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="G149" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H149" s="53" t="s">
+      <c r="G149" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H149" s="56" t="s">
         <v>13</v>
       </c>
       <c r="I149" s="33"/>
@@ -7701,16 +7770,16 @@
         <v>167</v>
       </c>
       <c r="D150" s="38"/>
-      <c r="E150" s="50" t="s">
+      <c r="E150" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="F150" s="51" t="s">
+      <c r="F150" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="G150" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H150" s="53" t="s">
+      <c r="G150" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H150" s="56" t="s">
         <v>13</v>
       </c>
       <c r="I150" s="33"/>
@@ -7724,16 +7793,16 @@
         <v>167</v>
       </c>
       <c r="D151" s="38"/>
-      <c r="E151" s="50" t="s">
+      <c r="E151" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="F151" s="51" t="s">
+      <c r="F151" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="G151" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H151" s="53" t="s">
+      <c r="G151" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151" s="56" t="s">
         <v>13</v>
       </c>
       <c r="I151" s="33"/>
@@ -7757,7 +7826,7 @@
       <c r="H152" s="18"/>
       <c r="I152" s="33"/>
     </row>
-    <row r="153" ht="13.5" customHeight="1" spans="1:9">
+    <row r="153" s="1" customFormat="1" ht="15" spans="1:9">
       <c r="A153" s="44" t="s">
         <v>187</v>
       </c>
@@ -7773,23 +7842,21 @@
       <c r="E153" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F153" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H153" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I153" s="33" t="s">
+      <c r="F153" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G153" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H153" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I153" s="33"/>
+    </row>
+    <row r="154" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A154" s="44"/>
+      <c r="B154" s="45" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="47"/>
-      <c r="B154" s="45" t="s">
-        <v>191</v>
       </c>
       <c r="C154" s="25" t="s">
         <v>11</v>
@@ -7798,52 +7865,472 @@
       <c r="E154" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F154" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" s="17" t="s">
+      <c r="F154" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G154" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I154" s="33"/>
+    </row>
+    <row r="155" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A155" s="44"/>
+      <c r="B155" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="C155" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" s="46"/>
+      <c r="E155" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G155" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H155" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I155" s="33"/>
+    </row>
+    <row r="156" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A156" s="44"/>
+      <c r="B156" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="C156" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="46"/>
+      <c r="E156" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G156" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H156" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I156" s="33"/>
+    </row>
+    <row r="157" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A157" s="44"/>
+      <c r="B157" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C157" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" s="46"/>
+      <c r="E157" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G157" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H157" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I157" s="33"/>
+    </row>
+    <row r="158" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A158" s="44"/>
+      <c r="B158" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="C158" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" s="46"/>
+      <c r="E158" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G158" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H158" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I158" s="33"/>
+    </row>
+    <row r="159" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A159" s="44"/>
+      <c r="B159" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="C159" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="46"/>
+      <c r="E159" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G159" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H159" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I159" s="33"/>
+    </row>
+    <row r="160" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A160" s="44"/>
+      <c r="B160" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C160" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="46"/>
+      <c r="E160" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G160" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H160" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I160" s="33"/>
+    </row>
+    <row r="161" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A161" s="44"/>
+      <c r="B161" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C161" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="46"/>
+      <c r="E161" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G161" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H161" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I161" s="33"/>
+    </row>
+    <row r="162" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A162" s="44"/>
+      <c r="B162" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="C162" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="46"/>
+      <c r="E162" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G162" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H162" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I162" s="33"/>
+    </row>
+    <row r="163" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A163" s="44"/>
+      <c r="B163" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="C163" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="46"/>
+      <c r="E163" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G163" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H163" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I163" s="33"/>
+    </row>
+    <row r="164" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A164" s="44"/>
+      <c r="B164" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="C164" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="46"/>
+      <c r="E164" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G164" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H164" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I164" s="33"/>
+    </row>
+    <row r="165" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A165" s="44"/>
+      <c r="B165" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C165" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" s="46"/>
+      <c r="E165" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G165" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H165" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I165" s="33"/>
+    </row>
+    <row r="166" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A166" s="44"/>
+      <c r="B166" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="C166" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="46"/>
+      <c r="E166" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G166" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H166" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I166" s="33"/>
+    </row>
+    <row r="167" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A167" s="44"/>
+      <c r="B167" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C167" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="46"/>
+      <c r="E167" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G167" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H167" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I167" s="33"/>
+    </row>
+    <row r="168" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A168" s="44"/>
+      <c r="B168" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C168" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="46"/>
+      <c r="E168" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G168" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H168" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I168" s="33"/>
+    </row>
+    <row r="169" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A169" s="44"/>
+      <c r="B169" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="C169" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="46"/>
+      <c r="E169" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G169" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H169" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I169" s="33"/>
+    </row>
+    <row r="170" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A170" s="44"/>
+      <c r="B170" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C170" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" s="46"/>
+      <c r="E170" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G170" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H170" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I170" s="33"/>
+    </row>
+    <row r="171" ht="13.5" customHeight="1" spans="1:9">
+      <c r="A171" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="B171" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="C171" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="E171" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G171" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H171" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I171" s="33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="50"/>
+      <c r="B172" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="C172" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" s="49"/>
+      <c r="E172" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G172" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H154" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I154" s="33" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="47"/>
-      <c r="B155" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="C155" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D155" s="46"/>
-      <c r="E155" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="F155" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" s="17" t="s">
+      <c r="H172" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I172" s="33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="50"/>
+      <c r="B173" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C173" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" s="49"/>
+      <c r="E173" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G173" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H155" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I155" s="56" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="2" t="s">
-        <v>193</v>
+      <c r="H173" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I173" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I155"/>
-  <mergeCells count="18">
+  <autoFilter ref="A1:I173"/>
+  <mergeCells count="20">
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="A15:A30"/>
     <mergeCell ref="A31:A41"/>
@@ -7852,7 +8339,8 @@
     <mergeCell ref="A107:A124"/>
     <mergeCell ref="A125:A135"/>
     <mergeCell ref="A136:A151"/>
-    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A153:A170"/>
+    <mergeCell ref="A171:A173"/>
     <mergeCell ref="D2:D14"/>
     <mergeCell ref="D15:D30"/>
     <mergeCell ref="D31:D41"/>
@@ -7861,9 +8349,10 @@
     <mergeCell ref="D107:D124"/>
     <mergeCell ref="D125:D135"/>
     <mergeCell ref="D136:D151"/>
-    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="D153:D170"/>
+    <mergeCell ref="D171:D173"/>
   </mergeCells>
-  <conditionalFormatting sqref="G2:G155">
+  <conditionalFormatting sqref="G153:G173 G2:G152">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -7873,11 +8362,11 @@
   </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I55 I56:I105"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G152 G2:G55 G56:G106 G107:G123 G124:G135 G136:G151 G153:G155">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H152 H2:H55 H56:H106 H107:H123 H124:H135 H171:H173"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G152 G2:G55 G56:G106 G107:G123 G124:G135 G136:G151 G153:G170 G171:G173">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H152 H2:H55 H56:H106 H107:H123 H124:H135 H153:H155"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="PLS Select 请选择" sqref="F152 F2:F55 F56:F106 F107:F123 F124:F135 F136:F151 F153:F155">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="PLS Select 请选择" sqref="F152 F153 F2:F55 F56:F106 F107:F123 F124:F135 F136:F151 F154:F170 F171:F173">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7898,7 +8387,8 @@
     <hyperlink ref="D136" r:id="rId14" display="lvs-keepalived.md"/>
     <hyperlink ref="D136:D151" r:id="rId15" display="lvs-keepalived.md"/>
     <hyperlink ref="D152" r:id="rId16" display="kops.md"/>
-    <hyperlink ref="D153:D155" r:id="rId17" display="cadvisor.md"/>
+    <hyperlink ref="D171:D173" r:id="rId17" display="cadvisor.md"/>
+    <hyperlink ref="D153:D170" r:id="rId18" display="ovs.sh"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
